--- a/biology/Microbiologie/Ichthyophthiriidae/Ichthyophthiriidae.xlsx
+++ b/biology/Microbiologie/Ichthyophthiriidae/Ichthyophthiriidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ichthyophthiriidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l’ordre des Hymenostomatida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Ichthyophthirius, formé du préfixe grec ιχθυο / ichthyo, « poisson », et du suffixe issu du grec ancien φθείρω / ftheíro, « détruire, altérer », qui a donné le mot φθείρ / ftheír, « pou, vermine », littéralement « pou du poisson », en référence à la « maladie des points blancs » ou Ichtyophthiriose, que provoque cet organisme chez certains poissons d'eau douce, notamment les Molly, très fréquemment élévés dans les aquarium domestiques.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cycle de vie
 Le cycle de vie de l’Ichthyophthirius multifiliis se déroule en quatre étapes successives :
@@ -550,9 +566,9 @@
 trophonte, qui est le stade adulte,
 tomonte, qui se transforme en tomocyste lequel génère des tomites enkystés,
 tomites, libérés du kyste lorsque ce dernier s'ouvre.
-Les stade 1 et 2 sont parasitaires, les 2 et 4 sont des stade libres, c'est-à-dire externe à l'hôte parasité[1].
+Les stade 1 et 2 sont parasitaires, les 2 et 4 sont des stade libres, c'est-à-dire externe à l'hôte parasité.
 Morphologie
-Les Ichthyophthiriidae ont une taille petite à grande[note 1] Leur forme est variable, avec le théronte[cycle 1] semblable au genre Tetrahymena (famille des Tetrahymenidae), ovoïde allongé, et avec le tomonte[cycle 2] enkysté, sphérique. Ils nagent librement, mais il se déplacent dans les tissus épithéliaux pendant la phase parasitaire. Leur ciliation somatique est holotriche (c. à d. uniforme), dense ; des cils caudaux sont présents au stade théronte[cycle 3]. Leurs structures buccales sont peu visibles, avec un appareil buccal à microstome de type Tetrahymena sur le devant et une ciliature buccale réduite dans le trophonte[cycle 4]. Leur reproduction se fait par palintomie[cycle 5] dans un kyste loin du poisson hôte, produisant jusqu'à 2 000 tomites[cycle 6]. Leur macronoyau est globulaire à réniforme. Leur micronoyau, peut être multiple. Il peut y avoir de multiples vacuoles contractiles. Le cytoprocte n’a pas été observé. Ils se nourrissant des cellules et des fluides corporels de leurs hôtes[2].
+Les Ichthyophthiriidae ont une taille petite à grande[note 1] Leur forme est variable, avec le théronte[cycle 1] semblable au genre Tetrahymena (famille des Tetrahymenidae), ovoïde allongé, et avec le tomonte[cycle 2] enkysté, sphérique. Ils nagent librement, mais il se déplacent dans les tissus épithéliaux pendant la phase parasitaire. Leur ciliation somatique est holotriche (c. à d. uniforme), dense ; des cils caudaux sont présents au stade théronte[cycle 3]. Leurs structures buccales sont peu visibles, avec un appareil buccal à microstome de type Tetrahymena sur le devant et une ciliature buccale réduite dans le trophonte[cycle 4]. Leur reproduction se fait par palintomie[cycle 5] dans un kyste loin du poisson hôte, produisant jusqu'à 2 000 tomites[cycle 6]. Leur macronoyau est globulaire à réniforme. Leur micronoyau, peut être multiple. Il peut y avoir de multiples vacuoles contractiles. Le cytoprocte n’a pas été observé. Ils se nourrissant des cellules et des fluides corporels de leurs hôtes.
 </t>
         </is>
       </c>
@@ -581,9 +597,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ichthyophthiriidae vivent dans des habitats d'eau douce, largement répandus, avec des trophontes[cycle 7] envahissant les tissus épithéliaux des branchies et du tégument des poissons, provoquant la maladie des points blancs[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ichthyophthiriidae vivent dans des habitats d'eau douce, largement répandus, avec des trophontes[cycle 7] envahissant les tissus épithéliaux des branchies et du tégument des poissons, provoquant la maladie des points blancs.
 </t>
         </is>
       </c>
@@ -612,9 +630,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (2 novembre 2023)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (2 novembre 2023) :
 Cryptocaryon
 Ichthyophthirioides Roque &amp; de Puytorac, 1966
 Ichthyophthirius Fouquet, 1876 genre type  nomen conservandum
@@ -647,9 +667,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct de ce taxon est Ichthyophthiriidae Kent, 1881[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct de ce taxon est Ichthyophthiriidae Kent, 1881.
 </t>
         </is>
       </c>
